--- a/DataScience/sofix_project/data/initial_data/mapping_bse_codies.xlsx
+++ b/DataScience/sofix_project/data/initial_data/mapping_bse_codies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Olga\SoftUni\PyCharmProjects\DataScience\sofix_project\data\initial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF87BC-198E-46AD-8F52-C837803BF28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D7362E-F587-4727-8577-076CEC0C6E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1507D6AD-1E02-4A92-BEB4-5A715C29D523}"/>
   </bookViews>
@@ -2919,7 +2919,7 @@
   <dimension ref="A1:D278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="D268" sqref="D268"/>
+      <selection activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
